--- a/biology/Médecine/Paulin-Méry/Paulin-Méry.xlsx
+++ b/biology/Médecine/Paulin-Méry/Paulin-Méry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paulin-M%C3%A9ry</t>
+          <t>Paulin-Méry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">César Auguste Paulin Méry, dit Paulin-Méry, né à Villiers-sur-Tholon le 14 juin 1860 et mort à Paris le 25 janvier 1913, est un médecin et homme politique français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paulin-M%C3%A9ry</t>
+          <t>Paulin-Méry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 13 octobre 1890 il prononce à Bagneux, quelques paroles patriotiques, tête nue, sous une pluie battante, lors de la commémoration du 20e anniversaire de la disparition tragique du comte Anne Marie André Henry Picot de Dampierre (1836-1870), en l'absence par modestie du Président de la République Casimir-Perier qui ne voulait pas venir s'entendre couvrir de fleurs, alors qu'il jugeait qu'il n'avait fait que son devoir en ramenant le corps de son commandant à l'ambulance du régiment[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 octobre 1890 il prononce à Bagneux, quelques paroles patriotiques, tête nue, sous une pluie battante, lors de la commémoration du 20e anniversaire de la disparition tragique du comte Anne Marie André Henry Picot de Dampierre (1836-1870), en l'absence par modestie du Président de la République Casimir-Perier qui ne voulait pas venir s'entendre couvrir de fleurs, alors qu'il jugeait qu'il n'avait fait que son devoir en ramenant le corps de son commandant à l'ambulance du régiment.
 Médecin, il a contribué à l'utilisation des rayons x, qui ont causé sa mort.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paulin-M%C3%A9ry</t>
+          <t>Paulin-Méry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Député de la Seine : 1889-1902.</t>
         </is>
